--- a/data/trans_orig/P57B3_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P57B3_R-Edad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>11317</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4727</v>
+        <v>3774</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>25088</v>
+        <v>23472</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.02775251199413523</v>
+        <v>0.02775251199413522</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01159085329014046</v>
+        <v>0.009255374743573875</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06152019057531834</v>
+        <v>0.05755852890965549</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>15</v>
@@ -762,19 +762,19 @@
         <v>28493</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>17031</v>
+        <v>15702</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>46714</v>
+        <v>46513</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07859747587662437</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04697990689152488</v>
+        <v>0.04331577972699645</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1288626869700001</v>
+        <v>0.1283080222805883</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>21</v>
@@ -783,19 +783,19 @@
         <v>39810</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>25106</v>
+        <v>25388</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>61998</v>
+        <v>60583</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.05168057603869147</v>
+        <v>0.05168057603869146</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03259205134044027</v>
+        <v>0.0329578342498623</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08048435840921882</v>
+        <v>0.07864842070075405</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>396476</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>382705</v>
+        <v>384321</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>403066</v>
+        <v>404019</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9722474880058648</v>
+        <v>0.9722474880058647</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9384798094246817</v>
+        <v>0.9424414710903442</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9884091467098596</v>
+        <v>0.9907446252564259</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>192</v>
@@ -833,19 +833,19 @@
         <v>334019</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>315798</v>
+        <v>315999</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>345481</v>
+        <v>346810</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9214025241233756</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.87113731303</v>
+        <v>0.8716919777194112</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.953020093108475</v>
+        <v>0.9566842202730035</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>358</v>
@@ -854,19 +854,19 @@
         <v>730495</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>708307</v>
+        <v>709722</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>745199</v>
+        <v>744917</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9483194239613087</v>
+        <v>0.9483194239613084</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9195156415907813</v>
+        <v>0.921351579299246</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9674079486595597</v>
+        <v>0.9670421657501377</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>36690</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>24320</v>
+        <v>25131</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>52484</v>
+        <v>52008</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0769351331609016</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0509973899087897</v>
+        <v>0.05269817600772087</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1100541709279207</v>
+        <v>0.1090576063724258</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>43</v>
@@ -979,19 +979,19 @@
         <v>47283</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>34039</v>
+        <v>35281</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>61550</v>
+        <v>61915</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09436195125088542</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06793054893864398</v>
+        <v>0.07040911656713818</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1228334654487793</v>
+        <v>0.1235615213710516</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>69</v>
@@ -1000,19 +1000,19 @@
         <v>83973</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>63207</v>
+        <v>65999</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>104441</v>
+        <v>105588</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0858640920245962</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06463020528048502</v>
+        <v>0.06748530230631011</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1067928415206134</v>
+        <v>0.107965965084919</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>440200</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>424406</v>
+        <v>424882</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>452570</v>
+        <v>451759</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9230648668390984</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8899458290720792</v>
+        <v>0.8909423936275743</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9490026100912095</v>
+        <v>0.9473018239922791</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>417</v>
@@ -1050,19 +1050,19 @@
         <v>453800</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>439533</v>
+        <v>439168</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>467044</v>
+        <v>465802</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9056380487491145</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8771665345512204</v>
+        <v>0.8764384786289482</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9320694510613559</v>
+        <v>0.9295908834328617</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>693</v>
@@ -1071,19 +1071,19 @@
         <v>894000</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>873532</v>
+        <v>872385</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>914766</v>
+        <v>911974</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9141359079754038</v>
+        <v>0.9141359079754037</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8932071584793866</v>
+        <v>0.8920340349150809</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9353697947195158</v>
+        <v>0.9325146976936898</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>74265</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>57280</v>
+        <v>58972</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>92580</v>
+        <v>91486</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1198443309146209</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.09243420295306939</v>
+        <v>0.09516523754073006</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1493996955995232</v>
+        <v>0.1476343760407452</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>62</v>
@@ -1196,19 +1196,19 @@
         <v>47683</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>37016</v>
+        <v>37609</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>59081</v>
+        <v>60766</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07686178403438899</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05966643798331273</v>
+        <v>0.06062369429922396</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09523506452706226</v>
+        <v>0.09795118825439204</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>129</v>
@@ -1217,19 +1217,19 @@
         <v>121948</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>102110</v>
+        <v>101626</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>144327</v>
+        <v>144702</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.09834107785445907</v>
+        <v>0.09834107785445909</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08234278611509192</v>
+        <v>0.08195236678115449</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1163877001541549</v>
+        <v>0.1166898499599446</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>545417</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>527102</v>
+        <v>528196</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>562402</v>
+        <v>560710</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8801556690853789</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8506003044004766</v>
+        <v>0.8523656239592545</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9075657970469306</v>
+        <v>0.9048347624592699</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>782</v>
@@ -1267,19 +1267,19 @@
         <v>572691</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>561293</v>
+        <v>559608</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>583358</v>
+        <v>582765</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9231382159656111</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9047649354729376</v>
+        <v>0.9020488117456077</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9403335620166869</v>
+        <v>0.939376305700776</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1260</v>
@@ -1288,19 +1288,19 @@
         <v>1118108</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1095729</v>
+        <v>1095354</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1137946</v>
+        <v>1138430</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9016589221455408</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8836122998458451</v>
+        <v>0.8833101500400553</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9176572138849081</v>
+        <v>0.9180476332188454</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>83977</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>69280</v>
+        <v>68309</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>104228</v>
+        <v>103578</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1198616666878101</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09888479252184371</v>
+        <v>0.09749832192577668</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1487657310838833</v>
+        <v>0.1478383104516953</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>108</v>
@@ -1413,19 +1413,19 @@
         <v>72769</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>59164</v>
+        <v>61257</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>86743</v>
+        <v>87162</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.09889887465740797</v>
+        <v>0.09889887465740796</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.08040852281943159</v>
+        <v>0.08325304186774141</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1178901520082239</v>
+        <v>0.1184609361549015</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>188</v>
@@ -1434,19 +1434,19 @@
         <v>156746</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>136868</v>
+        <v>135496</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>180159</v>
+        <v>178797</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1091236132622911</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09528488138777746</v>
+        <v>0.09432998048757685</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1254235234057896</v>
+        <v>0.1244752353459564</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>616640</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>596389</v>
+        <v>597039</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>631337</v>
+        <v>632308</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.88013833331219</v>
+        <v>0.8801383333121898</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8512342689161169</v>
+        <v>0.8521616895483041</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9011152074781563</v>
+        <v>0.9025016780742231</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1031</v>
@@ -1484,19 +1484,19 @@
         <v>663022</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>649048</v>
+        <v>648629</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>676627</v>
+        <v>674534</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.901101125342592</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8821098479917759</v>
+        <v>0.8815390638450983</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9195914771805684</v>
+        <v>0.9167469581322586</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1616</v>
@@ -1505,19 +1505,19 @@
         <v>1279662</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1256249</v>
+        <v>1257611</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1299540</v>
+        <v>1300912</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8908763867377087</v>
+        <v>0.890876386737709</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8745764765942106</v>
+        <v>0.8755247646540436</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9047151186122225</v>
+        <v>0.9056700195124232</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>103311</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>88326</v>
+        <v>86880</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>122520</v>
+        <v>121899</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1695435773192798</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1449517688043576</v>
+        <v>0.1425788719912935</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2010684077487837</v>
+        <v>0.2000488729866506</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>145</v>
@@ -1630,19 +1630,19 @@
         <v>91395</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>77406</v>
+        <v>78244</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>105193</v>
+        <v>104801</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1504409026803565</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1274145800443929</v>
+        <v>0.1287931993084439</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1731527742373268</v>
+        <v>0.1725080311467168</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>261</v>
@@ -1651,19 +1651,19 @@
         <v>194706</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>173640</v>
+        <v>173937</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>217685</v>
+        <v>218283</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.160006624614617</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1426948330337004</v>
+        <v>0.1429394767364882</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1788905508429762</v>
+        <v>0.1793817965938963</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>506035</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>486826</v>
+        <v>487447</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>521020</v>
+        <v>522466</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.8304564226807203</v>
+        <v>0.8304564226807202</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7989315922512163</v>
+        <v>0.7999511270133504</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8550482311956425</v>
+        <v>0.8574211280087068</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>855</v>
@@ -1701,19 +1701,19 @@
         <v>516119</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>502321</v>
+        <v>502713</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>530108</v>
+        <v>529270</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8495590973196434</v>
+        <v>0.8495590973196435</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8268472257626732</v>
+        <v>0.8274919688532831</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8725854199556072</v>
+        <v>0.8712068006915562</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1402</v>
@@ -1722,19 +1722,19 @@
         <v>1022154</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>999175</v>
+        <v>998577</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1043220</v>
+        <v>1042923</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8399933753853831</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8211094491570238</v>
+        <v>0.8206182034061035</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8573051669662997</v>
+        <v>0.8570605232635118</v>
       </c>
     </row>
     <row r="18">
@@ -1826,19 +1826,19 @@
         <v>50117</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>39648</v>
+        <v>39555</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>61380</v>
+        <v>60876</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1231131588118235</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.09739713534328984</v>
+        <v>0.09716677755484489</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1507809333442407</v>
+        <v>0.1495424333092131</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>158</v>
@@ -1847,19 +1847,19 @@
         <v>87670</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>75414</v>
+        <v>75151</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>99758</v>
+        <v>99533</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.199628176541306</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1717214964987321</v>
+        <v>0.1711221508573398</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2271532470497178</v>
+        <v>0.2266406696117945</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>231</v>
@@ -1868,19 +1868,19 @@
         <v>137787</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>122254</v>
+        <v>121538</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>156419</v>
+        <v>155562</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.1628212483401721</v>
+        <v>0.1628212483401722</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1444667734883533</v>
+        <v>0.1436205459404627</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1848386055275389</v>
+        <v>0.1838260019892821</v>
       </c>
     </row>
     <row r="20">
@@ -1897,19 +1897,19 @@
         <v>356963</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>345700</v>
+        <v>346204</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>367432</v>
+        <v>367525</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8768868411881764</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8492190666557593</v>
+        <v>0.8504575666907868</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9026028646567101</v>
+        <v>0.9028332224451548</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>669</v>
@@ -1918,19 +1918,19 @@
         <v>351496</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>339408</v>
+        <v>339633</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>363752</v>
+        <v>364015</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.8003718234586941</v>
+        <v>0.800371823458694</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7728467529502823</v>
+        <v>0.7733593303882056</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.828278503501268</v>
+        <v>0.8288778491426605</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1166</v>
@@ -1939,19 +1939,19 @@
         <v>708459</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>689827</v>
+        <v>690684</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>723992</v>
+        <v>724708</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.8371787516598277</v>
+        <v>0.8371787516598278</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8151613944724609</v>
+        <v>0.8161739980107179</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8555332265116466</v>
+        <v>0.8563794540595371</v>
       </c>
     </row>
     <row r="21">
@@ -2043,19 +2043,19 @@
         <v>57362</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>47087</v>
+        <v>46758</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>69388</v>
+        <v>69227</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.1854753716287344</v>
+        <v>0.1854753716287345</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1522503710857189</v>
+        <v>0.1511872837243619</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2243611008834482</v>
+        <v>0.2238399927450121</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>252</v>
@@ -2064,19 +2064,19 @@
         <v>129515</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>116452</v>
+        <v>116695</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>144904</v>
+        <v>144847</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2799581739005061</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2517227475521134</v>
+        <v>0.2522485935823541</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3132246508842635</v>
+        <v>0.3131015714104173</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>344</v>
@@ -2085,19 +2085,19 @@
         <v>186877</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>169881</v>
+        <v>169805</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>205500</v>
+        <v>205592</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.2421021216953728</v>
+        <v>0.2421021216953727</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2200838268795069</v>
+        <v>0.2199859004577389</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.266228797066938</v>
+        <v>0.2663476660761673</v>
       </c>
     </row>
     <row r="23">
@@ -2114,19 +2114,19 @@
         <v>251909</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>239883</v>
+        <v>240044</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>262184</v>
+        <v>262513</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.8145246283712655</v>
+        <v>0.8145246283712656</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7756388991165519</v>
+        <v>0.776160007254988</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8477496289142811</v>
+        <v>0.8488127162756383</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>626</v>
@@ -2135,19 +2135,19 @@
         <v>333106</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>317717</v>
+        <v>317774</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>346169</v>
+        <v>345926</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.720041826099494</v>
+        <v>0.7200418260994939</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6867753491157365</v>
+        <v>0.6868984285895826</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7482772524478866</v>
+        <v>0.7477514064176461</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>991</v>
@@ -2156,19 +2156,19 @@
         <v>585015</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>566392</v>
+        <v>566300</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>602011</v>
+        <v>602087</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7578978783046271</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.733771202933062</v>
+        <v>0.7336523339238329</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7799161731204931</v>
+        <v>0.7800140995422613</v>
       </c>
     </row>
     <row r="24">
@@ -2260,19 +2260,19 @@
         <v>417039</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>377142</v>
+        <v>380447</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>454720</v>
+        <v>454701</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1181186697784378</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1068185570819563</v>
+        <v>0.1077546334598804</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1287911694141884</v>
+        <v>0.1287857498224974</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>783</v>
@@ -2281,19 +2281,19 @@
         <v>504807</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>472074</v>
+        <v>472229</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>543858</v>
+        <v>542716</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1353710931703766</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.126593354503137</v>
+        <v>0.1266349277073406</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1458432072063873</v>
+        <v>0.1455368514865209</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1243</v>
@@ -2302,19 +2302,19 @@
         <v>921846</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>866046</v>
+        <v>873457</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>972321</v>
+        <v>978371</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1269806018524633</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1192943230172539</v>
+        <v>0.1203151688230486</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1339332982770171</v>
+        <v>0.1347667107535396</v>
       </c>
     </row>
     <row r="26">
@@ -2331,19 +2331,19 @@
         <v>3113641</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3075960</v>
+        <v>3075979</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3153538</v>
+        <v>3150233</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.8818813302215621</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.8712088305858121</v>
+        <v>0.8712142501775024</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8931814429180436</v>
+        <v>0.8922453665401194</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4572</v>
@@ -2352,19 +2352,19 @@
         <v>3224253</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3185202</v>
+        <v>3186344</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3256986</v>
+        <v>3256831</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8646289068296235</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8541567927936129</v>
+        <v>0.8544631485134778</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.873406645496863</v>
+        <v>0.8733650722926589</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>7486</v>
@@ -2373,19 +2373,19 @@
         <v>6337894</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>6287419</v>
+        <v>6281369</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6393694</v>
+        <v>6386283</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8730193981475366</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.8660667017229831</v>
+        <v>0.8652332892464606</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8807056769827457</v>
+        <v>0.8796848311769514</v>
       </c>
     </row>
     <row r="27">
